--- a/Cobertura de Carteira-1ª 2025.xlsx
+++ b/Cobertura de Carteira-1ª 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\Kidy\Documentos\kIDY - mAPEAMENTOS\cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EECAF05-97F5-44EA-928A-B64BC9113F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494294F7-4210-46BA-9FBD-5971FE268C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2BD4FA7B-4EC3-4FF7-B70D-ACBAF1B8A7C0}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BD4FA7B-4EC3-4FF7-B70D-ACBAF1B8A7C0}"/>
   </bookViews>
   <sheets>
     <sheet name="cobertura" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cobertura!$A$8:$K$8</definedName>
@@ -33,11 +32,19 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId6"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -180,7 +187,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -369,230 +376,7 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="0"/>
@@ -842,6 +626,29 @@
         <right style="thin">
           <color theme="4" tint="-0.499984740745262"/>
         </right>
+        <top style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </right>
         <top/>
         <bottom style="thin">
           <color theme="4" tint="-0.499984740745262"/>
@@ -1010,6 +817,36 @@
           <color theme="4" tint="-0.499984740745262"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1098,7 +935,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>31/05/2025</a:t>
+            <a:t>29/06/2025</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1">
             <a:solidFill>
@@ -1179,18 +1016,18 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>262555</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:colOff>83261</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>63608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>924556</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9517</xdr:rowOff>
+      <xdr:colOff>745262</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Supervisor">
@@ -1213,7 +1050,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1223,8 +1060,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13249212" y="825608"/>
-              <a:ext cx="1881201" cy="2090395"/>
+              <a:off x="13037261" y="1060932"/>
+              <a:ext cx="1872236" cy="2076716"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1609,7 +1446,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Folha 1"/>
@@ -2397,7 +2234,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="dash (2)"/>
@@ -2435,10 +2272,10 @@
       <sheetData sheetId="5">
         <row r="23">
           <cell r="D23">
-            <v>7574</v>
+            <v>7355</v>
           </cell>
           <cell r="E23">
-            <v>447</v>
+            <v>1233</v>
           </cell>
         </row>
       </sheetData>
@@ -2466,26 +2303,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="cobertura"/>
-      <sheetName val="Planilha4"/>
-      <sheetName val="% cOB. caRT"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Supervisor" xr10:uid="{02C6759B-0245-4C8D-AF07-2775739E6D4A}" sourceName="Supervisor">
   <extLst>
@@ -2503,28 +2320,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M59" totalsRowCount="1" headerRowDxfId="38" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}" name="Tabela1" displayName="Tabela1" ref="A8:M59" totalsRowCount="1" headerRowDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A8:M58" xr:uid="{2C699080-BB77-4B73-A408-C4AABE6B398B}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{2E103CB5-8552-4DFF-8DFF-D7107D28CA72}" name="Rep" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{DC53BAE2-FEFB-4577-8C31-8C708160F4AE}" name="Nome Rep." dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{98443E25-9A69-4DD4-BEF1-083F32064E92}" name="Supervisor" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{313671CC-B700-48CF-9572-F301644DDCBF}" name="Carteira" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{99AB9EB0-9D28-4F16-99B2-865263D09091}" name="Bloqueados" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{3F77B725-1A7B-4337-AFEC-F2B0738A84A9}" name="Abertos 2025 2º SEM" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{B161C5DE-CB19-4197-B530-CF605C61AEE8}" name="Sem Limite" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{7DF927DB-FC14-493C-8860-08E3337FCB7E}" name="Saldo de Carteira" dataDxfId="29">
+    <tableColumn id="1" xr3:uid="{2E103CB5-8552-4DFF-8DFF-D7107D28CA72}" name="Rep" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{DC53BAE2-FEFB-4577-8C31-8C708160F4AE}" name="Nome Rep." dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{98443E25-9A69-4DD4-BEF1-083F32064E92}" name="Supervisor" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{313671CC-B700-48CF-9572-F301644DDCBF}" name="Carteira" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{99AB9EB0-9D28-4F16-99B2-865263D09091}" name="Bloqueados" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{3F77B725-1A7B-4337-AFEC-F2B0738A84A9}" name="Abertos 2025 2º SEM" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{B161C5DE-CB19-4197-B530-CF605C61AEE8}" name="Sem Limite" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{7DF927DB-FC14-493C-8860-08E3337FCB7E}" name="Saldo de Carteira" dataDxfId="9">
       <calculatedColumnFormula>D9-E9+Tabela1[[#This Row],[Abertos 2025 2º SEM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{39FC1898-2573-42E0-BC52-C9F93D1A1B69}" name="cobertura" dataDxfId="20">
-      <calculatedColumnFormula>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="28" totalsRowDxfId="24" dataCellStyle="Porcentagem">
+    <tableColumn id="5" xr3:uid="{39FC1898-2573-42E0-BC52-C9F93D1A1B69}" name="cobertura" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{73729B4D-016C-45AC-84B0-5F4C6E582133}" name="% Cobertura" dataDxfId="7" totalsRowDxfId="3" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>I9/H9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="27" totalsRowDxfId="23" dataCellStyle="Vírgula"/>
-    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="26" totalsRowDxfId="22" dataCellStyle="Vírgula"/>
-    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="25" totalsRowDxfId="21" dataCellStyle="Vírgula"/>
+    <tableColumn id="7" xr3:uid="{DB269E38-4E7F-4032-855F-5F7E2DDD3628}" name="mix" dataDxfId="6" totalsRowDxfId="2" dataCellStyle="Vírgula"/>
+    <tableColumn id="12" xr3:uid="{5E7F18D1-3A42-4F78-BD2B-40CF376728D7}" name="Meta Cob. Dia Crianças" dataDxfId="5" totalsRowDxfId="1" dataCellStyle="Vírgula"/>
+    <tableColumn id="13" xr3:uid="{0BC7EA2F-5567-46FC-9D2B-47B38F66221B}" name="Meta Cob. Coleção" dataDxfId="4" totalsRowDxfId="0" dataCellStyle="Vírgula"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2830,11 +2645,11 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -2851,35 +2666,35 @@
     <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="G1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="G2"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="P2" s="13">
         <f ca="1">TODAY()-1</f>
-        <v>45808</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>45837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="G3"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="G4"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="18.75">
       <c r="E5" s="16">
         <f>E6/D6</f>
         <v>1.6869971450817544E-2</v>
@@ -2894,13 +2709,13 @@
       </c>
       <c r="J5" s="28">
         <f>J6-'% cOB. caRT'!D9</f>
-        <v>0.28447835987418796</v>
+        <v>0.28736853328459255</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="29" t="s">
         <v>8</v>
       </c>
@@ -2928,20 +2743,20 @@
       </c>
       <c r="I6" s="2">
         <f>SUBTOTAL(9,Tabela1[cobertura])</f>
-        <v>3048</v>
+        <v>3070</v>
       </c>
       <c r="J6" s="28">
         <f>I6/H6</f>
-        <v>0.40042038885969522</v>
+        <v>0.40331056227009981</v>
       </c>
       <c r="K6" s="3">
         <f>SUBTOTAL(101,Tabela1[mix])</f>
-        <v>6.836530612244899</v>
+        <v>6.9426530612244912</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2956,7 +2771,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -2997,7 +2812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" customHeight="1">
       <c r="A9" s="17">
         <v>11</v>
       </c>
@@ -3023,7 +2838,6 @@
         <v>252</v>
       </c>
       <c r="I9" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>92</v>
       </c>
       <c r="J9" s="12">
@@ -3036,7 +2850,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" customHeight="1">
       <c r="A10" s="8">
         <v>15</v>
       </c>
@@ -3064,7 +2878,6 @@
         <v>173</v>
       </c>
       <c r="I10" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>49</v>
       </c>
       <c r="J10" s="12">
@@ -3077,7 +2890,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="8">
         <v>19</v>
       </c>
@@ -3103,7 +2916,6 @@
         <v>107</v>
       </c>
       <c r="I11" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>65</v>
       </c>
       <c r="J11" s="12">
@@ -3116,7 +2928,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="A12" s="8">
         <v>23</v>
       </c>
@@ -3144,7 +2956,6 @@
         <v>183</v>
       </c>
       <c r="I12" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>99</v>
       </c>
       <c r="J12" s="12">
@@ -3152,12 +2963,12 @@
         <v>0.54098360655737709</v>
       </c>
       <c r="K12" s="10">
-        <v>7.6</v>
+        <v>8.94</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" customHeight="1">
       <c r="A13" s="8">
         <v>31</v>
       </c>
@@ -3185,7 +2996,6 @@
         <v>144</v>
       </c>
       <c r="I13" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>67</v>
       </c>
       <c r="J13" s="12">
@@ -3198,7 +3008,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15" customHeight="1">
       <c r="A14" s="8">
         <v>34</v>
       </c>
@@ -3224,7 +3034,6 @@
         <v>127</v>
       </c>
       <c r="I14" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>65</v>
       </c>
       <c r="J14" s="12">
@@ -3237,7 +3046,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" customHeight="1">
       <c r="A15" s="8">
         <v>38</v>
       </c>
@@ -3263,7 +3072,6 @@
         <v>144</v>
       </c>
       <c r="I15" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>56</v>
       </c>
       <c r="J15" s="12">
@@ -3276,7 +3084,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15" customHeight="1">
       <c r="A16" s="8">
         <v>39</v>
       </c>
@@ -3302,7 +3110,6 @@
         <v>106</v>
       </c>
       <c r="I16" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>38</v>
       </c>
       <c r="J16" s="12">
@@ -3315,7 +3122,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="8">
         <v>41</v>
       </c>
@@ -3341,7 +3148,6 @@
         <v>64</v>
       </c>
       <c r="I17" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>25</v>
       </c>
       <c r="J17" s="12">
@@ -3354,7 +3160,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15" customHeight="1">
       <c r="A18" s="8">
         <v>45</v>
       </c>
@@ -3382,20 +3188,19 @@
         <v>222</v>
       </c>
       <c r="I18" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
-        <v>0.50900900900900903</v>
+        <v>0.52252252252252251</v>
       </c>
       <c r="K18" s="10">
-        <v>2.67</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15" customHeight="1">
       <c r="A19" s="8">
         <v>46</v>
       </c>
@@ -3423,20 +3228,19 @@
         <v>94</v>
       </c>
       <c r="I19" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J19" s="12">
         <f t="shared" si="0"/>
-        <v>0.39361702127659576</v>
+        <v>0.40425531914893614</v>
       </c>
       <c r="K19" s="10">
-        <v>5.2</v>
+        <v>6.76</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15" customHeight="1">
       <c r="A20" s="8">
         <v>53</v>
       </c>
@@ -3462,7 +3266,6 @@
         <v>86</v>
       </c>
       <c r="I20" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>39</v>
       </c>
       <c r="J20" s="12">
@@ -3475,7 +3278,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15" customHeight="1">
       <c r="A21" s="18">
         <v>61</v>
       </c>
@@ -3501,7 +3304,6 @@
         <v>166</v>
       </c>
       <c r="I21" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>81</v>
       </c>
       <c r="J21" s="12">
@@ -3514,7 +3316,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15" customHeight="1">
       <c r="A22" s="8">
         <v>65</v>
       </c>
@@ -3542,7 +3344,6 @@
         <v>157</v>
       </c>
       <c r="I22" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>60</v>
       </c>
       <c r="J22" s="12">
@@ -3555,7 +3356,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15" customHeight="1">
       <c r="A23" s="8">
         <v>74</v>
       </c>
@@ -3582,20 +3383,19 @@
         <v>149</v>
       </c>
       <c r="I23" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J23" s="12">
         <f t="shared" si="0"/>
-        <v>0.61073825503355705</v>
+        <v>0.64429530201342278</v>
       </c>
       <c r="K23" s="10">
-        <v>5.25</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15" customHeight="1">
       <c r="A24" s="8">
         <v>93</v>
       </c>
@@ -3623,20 +3423,19 @@
         <v>234</v>
       </c>
       <c r="I24" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J24" s="12">
         <f t="shared" si="0"/>
-        <v>0.42307692307692307</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="K24" s="10">
-        <v>12.36</v>
+        <v>7.97</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="8">
         <v>143</v>
       </c>
@@ -3662,7 +3461,6 @@
         <v>104</v>
       </c>
       <c r="I25" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>51</v>
       </c>
       <c r="J25" s="12">
@@ -3675,7 +3473,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15" customHeight="1">
       <c r="A26" s="8">
         <v>167</v>
       </c>
@@ -3701,7 +3499,6 @@
         <v>98</v>
       </c>
       <c r="I26" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>43</v>
       </c>
       <c r="J26" s="12">
@@ -3714,7 +3511,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15" customHeight="1">
       <c r="A27" s="8">
         <v>261</v>
       </c>
@@ -3739,7 +3536,6 @@
         <v>168</v>
       </c>
       <c r="I27" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>83</v>
       </c>
       <c r="J27" s="12">
@@ -3752,7 +3548,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15" customHeight="1">
       <c r="A28" s="8">
         <v>178</v>
       </c>
@@ -3777,20 +3573,19 @@
         <v>172</v>
       </c>
       <c r="I28" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J28" s="12">
         <f t="shared" si="0"/>
-        <v>0.40697674418604651</v>
+        <v>0.41279069767441862</v>
       </c>
       <c r="K28" s="10">
-        <v>7.5</v>
+        <v>7.89</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" customHeight="1">
       <c r="A29" s="8">
         <v>187</v>
       </c>
@@ -3816,20 +3611,19 @@
         <v>125</v>
       </c>
       <c r="I29" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J29" s="12">
         <f t="shared" si="0"/>
-        <v>0.32</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="K29" s="10">
-        <v>20</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15" customHeight="1">
       <c r="A30" s="8">
         <v>194</v>
       </c>
@@ -3857,7 +3651,6 @@
         <v>258</v>
       </c>
       <c r="I30" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>99</v>
       </c>
       <c r="J30" s="12">
@@ -3870,7 +3663,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="8">
         <v>197</v>
       </c>
@@ -3896,7 +3689,6 @@
         <v>139</v>
       </c>
       <c r="I31" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>63</v>
       </c>
       <c r="J31" s="12">
@@ -3909,7 +3701,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15" customHeight="1">
       <c r="A32" s="8">
         <v>208</v>
       </c>
@@ -3935,7 +3727,6 @@
         <v>116</v>
       </c>
       <c r="I32" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>40</v>
       </c>
       <c r="J32" s="12">
@@ -3948,7 +3739,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15" customHeight="1">
       <c r="A33" s="8">
         <v>217</v>
       </c>
@@ -3974,7 +3765,6 @@
         <v>259</v>
       </c>
       <c r="I33" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>105</v>
       </c>
       <c r="J33" s="12">
@@ -3987,7 +3777,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="15" customHeight="1">
       <c r="A34" s="8">
         <v>218</v>
       </c>
@@ -4015,7 +3805,6 @@
         <v>178</v>
       </c>
       <c r="I34" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>79</v>
       </c>
       <c r="J34" s="12">
@@ -4028,7 +3817,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15" customHeight="1">
       <c r="A35" s="8">
         <v>231</v>
       </c>
@@ -4054,20 +3843,19 @@
         <v>116</v>
       </c>
       <c r="I35" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J35" s="12">
         <f t="shared" si="0"/>
-        <v>0.69827586206896552</v>
+        <v>0.68965517241379315</v>
       </c>
       <c r="K35" s="10">
-        <v>8.7799999999999994</v>
+        <v>7.71</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15" customHeight="1">
       <c r="A36" s="8">
         <v>232</v>
       </c>
@@ -4095,7 +3883,6 @@
         <v>267</v>
       </c>
       <c r="I36" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>86</v>
       </c>
       <c r="J36" s="12">
@@ -4108,7 +3895,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15" customHeight="1">
       <c r="A37" s="8">
         <v>240</v>
       </c>
@@ -4136,7 +3923,6 @@
         <v>174</v>
       </c>
       <c r="I37" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>91</v>
       </c>
       <c r="J37" s="12">
@@ -4149,7 +3935,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15" customHeight="1">
       <c r="A38" s="8">
         <v>248</v>
       </c>
@@ -4174,20 +3960,19 @@
         <v>134</v>
       </c>
       <c r="I38" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J38" s="12">
         <f t="shared" si="0"/>
-        <v>0.29104477611940299</v>
+        <v>0.30597014925373134</v>
       </c>
       <c r="K38" s="10">
-        <v>6.33</v>
+        <v>5.76</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15" customHeight="1">
       <c r="A39" s="8">
         <v>261</v>
       </c>
@@ -4213,7 +3998,6 @@
         <v>166</v>
       </c>
       <c r="I39" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>83</v>
       </c>
       <c r="J39" s="12">
@@ -4226,7 +4010,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15" customHeight="1">
       <c r="A40" s="8">
         <v>266</v>
       </c>
@@ -4252,7 +4036,6 @@
         <v>311</v>
       </c>
       <c r="I40" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>61</v>
       </c>
       <c r="J40" s="12">
@@ -4265,7 +4048,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15" customHeight="1">
       <c r="A41" s="8">
         <v>267</v>
       </c>
@@ -4291,7 +4074,6 @@
         <v>129</v>
       </c>
       <c r="I41" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>55</v>
       </c>
       <c r="J41" s="12">
@@ -4304,7 +4086,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15" customHeight="1">
       <c r="A42" s="8">
         <v>270</v>
       </c>
@@ -4332,7 +4114,6 @@
         <v>94</v>
       </c>
       <c r="I42" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>36</v>
       </c>
       <c r="J42" s="12">
@@ -4345,7 +4126,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
     </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15" customHeight="1">
       <c r="A43" s="8">
         <v>273</v>
       </c>
@@ -4370,7 +4151,6 @@
         <v>195</v>
       </c>
       <c r="I43" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>57</v>
       </c>
       <c r="J43" s="12">
@@ -4383,7 +4163,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="15" customHeight="1">
       <c r="A44" s="8">
         <v>282</v>
       </c>
@@ -4411,7 +4191,6 @@
         <v>212</v>
       </c>
       <c r="I44" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>69</v>
       </c>
       <c r="J44" s="12">
@@ -4424,7 +4203,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="15" customHeight="1">
       <c r="A45" s="8">
         <v>322</v>
       </c>
@@ -4450,20 +4229,19 @@
         <v>135</v>
       </c>
       <c r="I45" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J45" s="12">
         <f t="shared" si="0"/>
-        <v>0.31111111111111112</v>
+        <v>0.32592592592592595</v>
       </c>
       <c r="K45" s="10">
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15" customHeight="1">
       <c r="A46" s="8">
         <v>292</v>
       </c>
@@ -4489,7 +4267,6 @@
         <v>101</v>
       </c>
       <c r="I46" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>28</v>
       </c>
       <c r="J46" s="12">
@@ -4502,7 +4279,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="8">
         <v>321</v>
       </c>
@@ -4527,7 +4304,6 @@
         <v>152</v>
       </c>
       <c r="I47" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>43</v>
       </c>
       <c r="J47" s="12">
@@ -4540,7 +4316,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="15" customHeight="1">
       <c r="A48" s="8">
         <v>296</v>
       </c>
@@ -4567,7 +4343,6 @@
         <v>140</v>
       </c>
       <c r="I48" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>53</v>
       </c>
       <c r="J48" s="12">
@@ -4580,7 +4355,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="8">
         <v>297</v>
       </c>
@@ -4606,7 +4381,6 @@
         <v>113</v>
       </c>
       <c r="I49" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>49</v>
       </c>
       <c r="J49" s="12">
@@ -4619,7 +4393,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
     </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15" customHeight="1">
       <c r="A50" s="8">
         <v>299</v>
       </c>
@@ -4645,7 +4419,6 @@
         <v>133</v>
       </c>
       <c r="I50" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>59</v>
       </c>
       <c r="J50" s="12">
@@ -4658,7 +4431,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
     </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="15" customHeight="1">
       <c r="A51" s="8">
         <v>301</v>
       </c>
@@ -4687,7 +4460,6 @@
         <v>94</v>
       </c>
       <c r="I51" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>30</v>
       </c>
       <c r="J51" s="12">
@@ -4700,7 +4472,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
     </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15" customHeight="1">
       <c r="A52" s="8">
         <v>302</v>
       </c>
@@ -4728,7 +4500,6 @@
         <v>83</v>
       </c>
       <c r="I52" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>40</v>
       </c>
       <c r="J52" s="12">
@@ -4741,7 +4512,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
     </row>
-    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="15" customHeight="1">
       <c r="A53" s="8">
         <v>308</v>
       </c>
@@ -4768,7 +4539,6 @@
         <v>135</v>
       </c>
       <c r="I53" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>34</v>
       </c>
       <c r="J53" s="12">
@@ -4781,7 +4551,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="8">
         <v>311</v>
       </c>
@@ -4806,7 +4576,6 @@
         <v>99</v>
       </c>
       <c r="I54" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>34</v>
       </c>
       <c r="J54" s="12">
@@ -4817,7 +4586,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
     </row>
-    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="15" customHeight="1">
       <c r="A55" s="8">
         <v>315</v>
       </c>
@@ -4843,20 +4612,19 @@
         <v>117</v>
       </c>
       <c r="I55" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J55" s="12">
         <f t="shared" si="0"/>
-        <v>0.72649572649572647</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="K55" s="10">
-        <v>6</v>
+        <v>5.87</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
     </row>
-    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="15" customHeight="1">
       <c r="A56" s="8">
         <v>316</v>
       </c>
@@ -4883,7 +4651,6 @@
         <v>84</v>
       </c>
       <c r="I56" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>48</v>
       </c>
       <c r="J56" s="12">
@@ -4896,7 +4663,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
     </row>
-    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="15" customHeight="1">
       <c r="A57" s="18">
         <v>317</v>
       </c>
@@ -4921,7 +4688,6 @@
         <v>265</v>
       </c>
       <c r="I57" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>74</v>
       </c>
       <c r="J57" s="12">
@@ -4934,7 +4700,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
     </row>
-    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="15" customHeight="1">
       <c r="A58" s="8">
         <v>320</v>
       </c>
@@ -4961,7 +4727,6 @@
         <v>138</v>
       </c>
       <c r="I58" s="8">
-        <f>VLOOKUP(Tabela1[[#This Row],[Rep]],[3]!Tabela1[#Data],9,0)</f>
         <v>22</v>
       </c>
       <c r="J58" s="12">
@@ -4974,15 +4739,15 @@
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
     </row>
-    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="15" customHeight="1">
       <c r="G59"/>
       <c r="J59" s="19"/>
       <c r="K59" s="20"/>
       <c r="L59" s="20"/>
       <c r="M59" s="20"/>
     </row>
-    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:13" ht="15" customHeight="1"/>
+    <row r="61" spans="1:13" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A6:C6"/>
@@ -4997,14 +4762,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="between">
       <formula>0.6</formula>
       <formula>0.7999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
       <formula>0.5999</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5033,7 +4798,7 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5044,17 +4809,17 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
@@ -5065,7 +4830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="23">
         <v>45597</v>
       </c>
@@ -5077,7 +4842,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="23">
         <v>45627</v>
       </c>
@@ -5089,7 +4854,7 @@
         <v>7.246376811594203E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="24" t="s">
         <v>12</v>
       </c>
@@ -5100,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="24" t="s">
         <v>13</v>
       </c>
@@ -5108,7 +4873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="24" t="s">
         <v>14</v>
       </c>
@@ -5119,7 +4884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="24" t="s">
         <v>15</v>
       </c>
@@ -5131,7 +4896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="24" t="s">
         <v>16</v>
       </c>
@@ -5139,7 +4904,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="24" t="s">
         <v>17</v>
       </c>
@@ -5151,7 +4916,7 @@
         <v>0.11594202898550725</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="24" t="s">
         <v>18</v>
       </c>
@@ -5159,7 +4924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="24" t="s">
         <v>19</v>
       </c>
@@ -5167,7 +4932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="24" t="s">
         <v>20</v>
       </c>
@@ -5175,7 +4940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="24" t="s">
         <v>21</v>
       </c>
@@ -5183,7 +4948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="24" t="s">
         <v>22</v>
       </c>
@@ -5191,7 +4956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="24" t="s">
         <v>23</v>
       </c>
@@ -5199,22 +4964,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17">
         <f>[2]Ausentes!D23*'% cOB. caRT'!D9</f>
-        <v>878.14492753623188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>852.75362318840575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="26">
         <f>A17-[2]Ausentes!E23</f>
-        <v>431.14492753623188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>-380.24637681159425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="27">
         <f ca="1">TODAY()-2</f>
-        <v>45807</v>
+        <v>45836</v>
       </c>
     </row>
   </sheetData>
